--- a/spec/results.xlsx
+++ b/spec/results.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="27.02.2016" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -363,19 +363,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Frutiger 55 Roman"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Frutiger 55 Roman"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -390,13 +390,121 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Frutiger 55 Roman"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Frutiger 55 Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="UBSHeadline"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF006100"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9C0006"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9C6500"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="0"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Frutiger 45 Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,8 +553,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -603,9 +746,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -723,18 +990,40 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="18">
+    <cellStyle name="Bad" xfId="7" builtinId="27" hidden="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" hidden="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" hidden="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" hidden="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" hidden="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" hidden="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" hidden="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" hidden="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" hidden="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" hidden="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" hidden="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" hidden="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" hidden="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="PresXpress_OnScreen_Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="UBS Colorset">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -742,28 +1031,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="E60000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="3692CA"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="C09979"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="4D3C2F"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="AFBCD5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="759731"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="A43725"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -772,77 +1061,19 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="UBS OnScreen Fontset">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="UBSHeadline"/>
+        <a:ea typeface="MS PGothic"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="Frutiger 55 Roman"/>
+        <a:ea typeface="MS PGothic"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,30 +1240,110 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7B7D80"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:defRPr dirty="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="7B7D80"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+      </a:spPr>
+      <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr dirty="0"/>
+        </a:defPPr>
+      </a:lstStyle>
+    </a:txDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AN26" sqref="AN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="27" max="27" width="25.5703125" customWidth="1"/>
-    <col min="40" max="40" width="19.7109375" customWidth="1"/>
-    <col min="53" max="53" width="19.85546875" customWidth="1"/>
-    <col min="67" max="67" width="21.42578125" customWidth="1"/>
-    <col min="70" max="70" width="21.5703125" customWidth="1"/>
-    <col min="75" max="75" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="14" max="14" width="19.875" customWidth="1"/>
+    <col min="27" max="27" width="25.5" customWidth="1"/>
+    <col min="40" max="40" width="19.625" customWidth="1"/>
+    <col min="53" max="53" width="19.75" customWidth="1"/>
+    <col min="67" max="67" width="21.375" customWidth="1"/>
+    <col min="70" max="70" width="21.5" customWidth="1"/>
+    <col min="75" max="75" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76">
@@ -8503,24 +8814,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CI54"/>
   <sheetViews>
-    <sheetView topLeftCell="BS1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="CF3" sqref="CF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1"/>
-    <col min="28" max="28" width="27.42578125" customWidth="1"/>
-    <col min="41" max="41" width="27.85546875" customWidth="1"/>
-    <col min="54" max="54" width="27.42578125" customWidth="1"/>
-    <col min="68" max="68" width="20.5703125" customWidth="1"/>
-    <col min="81" max="81" width="20.7109375" customWidth="1"/>
-    <col min="86" max="86" width="24" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="14" max="14" width="23.75" customWidth="1"/>
+    <col min="28" max="28" width="27.375" customWidth="1"/>
+    <col min="41" max="41" width="27.75" customWidth="1"/>
+    <col min="54" max="54" width="27.375" customWidth="1"/>
+    <col min="68" max="68" width="20.5" customWidth="1"/>
+    <col min="81" max="81" width="20.625" customWidth="1"/>
+    <col min="86" max="86" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:87">
@@ -18431,7 +18742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
